--- a/Bill Of Materials.xlsx
+++ b/Bill Of Materials.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,14 +959,14 @@
         <v>56</v>
       </c>
       <c r="D28" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1029,7 +1029,7 @@
     <row r="38" spans="6:6">
       <c r="F38" s="1">
         <f>SUM(F3:F36)</f>
-        <v>347.70000000000005</v>
+        <v>337.70000000000005</v>
       </c>
     </row>
   </sheetData>
